--- a/dashboard-LNS/www/orgs_list_2.xlsx
+++ b/dashboard-LNS/www/orgs_list_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/ShinyShiny/dashboard-LNS/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96732C05-6243-B148-B519-0D0DC6E5BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D1ACE-326C-F347-BB44-1EDD261CE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="644">
   <si>
     <t>Name:</t>
   </si>
@@ -1949,6 +1949,9 @@
   </si>
   <si>
     <t>-65.9677375</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -2314,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2329,6 +2332,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>643</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3532,11 +3538,17 @@
       <c r="F28" t="s">
         <v>178</v>
       </c>
+      <c r="G28" t="s">
+        <v>643</v>
+      </c>
       <c r="H28" t="s">
         <v>52</v>
       </c>
       <c r="I28" t="s">
         <v>179</v>
+      </c>
+      <c r="J28" t="s">
+        <v>643</v>
       </c>
       <c r="K28" t="s">
         <v>180</v>
@@ -3570,8 +3582,23 @@
       <c r="F29" t="s">
         <v>186</v>
       </c>
+      <c r="G29" t="s">
+        <v>643</v>
+      </c>
       <c r="H29" t="s">
         <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>643</v>
+      </c>
+      <c r="J29" t="s">
+        <v>643</v>
+      </c>
+      <c r="K29" t="s">
+        <v>643</v>
+      </c>
+      <c r="L29" t="s">
+        <v>643</v>
       </c>
       <c r="M29" t="s">
         <v>187</v>
@@ -3687,8 +3714,23 @@
       <c r="F32" t="s">
         <v>198</v>
       </c>
+      <c r="G32" t="s">
+        <v>643</v>
+      </c>
       <c r="H32" t="s">
         <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>643</v>
+      </c>
+      <c r="J32" t="s">
+        <v>643</v>
+      </c>
+      <c r="K32" t="s">
+        <v>643</v>
+      </c>
+      <c r="L32" t="s">
+        <v>643</v>
       </c>
       <c r="M32" t="s">
         <v>199</v>
@@ -3936,8 +3978,23 @@
       <c r="F38" t="s">
         <v>232</v>
       </c>
+      <c r="G38" t="s">
+        <v>643</v>
+      </c>
       <c r="H38" t="s">
         <v>102</v>
+      </c>
+      <c r="I38" t="s">
+        <v>643</v>
+      </c>
+      <c r="J38" t="s">
+        <v>643</v>
+      </c>
+      <c r="K38" t="s">
+        <v>643</v>
+      </c>
+      <c r="L38" t="s">
+        <v>643</v>
       </c>
       <c r="M38" t="s">
         <v>233</v>
@@ -4106,6 +4163,9 @@
       <c r="I42" t="s">
         <v>255</v>
       </c>
+      <c r="J42" t="s">
+        <v>643</v>
+      </c>
       <c r="K42" t="s">
         <v>22</v>
       </c>
@@ -4138,8 +4198,23 @@
       <c r="F43" t="s">
         <v>259</v>
       </c>
+      <c r="G43" t="s">
+        <v>643</v>
+      </c>
       <c r="H43" t="s">
         <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>643</v>
+      </c>
+      <c r="J43" t="s">
+        <v>643</v>
+      </c>
+      <c r="K43" t="s">
+        <v>643</v>
+      </c>
+      <c r="L43" t="s">
+        <v>643</v>
       </c>
       <c r="M43" t="s">
         <v>260</v>
@@ -4185,6 +4260,12 @@
       <c r="L44" t="s">
         <v>268</v>
       </c>
+      <c r="M44" t="s">
+        <v>643</v>
+      </c>
+      <c r="N44" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -4223,6 +4304,12 @@
       <c r="L45" t="s">
         <v>275</v>
       </c>
+      <c r="M45" t="s">
+        <v>643</v>
+      </c>
+      <c r="N45" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -4481,6 +4568,12 @@
       <c r="L51" t="s">
         <v>297</v>
       </c>
+      <c r="M51" t="s">
+        <v>643</v>
+      </c>
+      <c r="N51" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -4545,6 +4638,9 @@
       <c r="F53" t="s">
         <v>314</v>
       </c>
+      <c r="G53" t="s">
+        <v>643</v>
+      </c>
       <c r="H53" t="s">
         <v>52</v>
       </c>
@@ -4553,6 +4649,18 @@
       </c>
       <c r="J53" t="s">
         <v>316</v>
+      </c>
+      <c r="K53" t="s">
+        <v>643</v>
+      </c>
+      <c r="L53" t="s">
+        <v>643</v>
+      </c>
+      <c r="M53" t="s">
+        <v>643</v>
+      </c>
+      <c r="N53" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -4618,8 +4726,23 @@
       <c r="F55" t="s">
         <v>322</v>
       </c>
+      <c r="G55" t="s">
+        <v>643</v>
+      </c>
       <c r="H55" t="s">
         <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>643</v>
+      </c>
+      <c r="J55" t="s">
+        <v>643</v>
+      </c>
+      <c r="K55" t="s">
+        <v>643</v>
+      </c>
+      <c r="L55" t="s">
+        <v>643</v>
       </c>
       <c r="M55" t="s">
         <v>323</v>
@@ -4691,6 +4814,9 @@
       <c r="F57" t="s">
         <v>336</v>
       </c>
+      <c r="G57" t="s">
+        <v>643</v>
+      </c>
       <c r="H57" t="s">
         <v>19</v>
       </c>
@@ -4750,6 +4876,12 @@
       <c r="L58" t="s">
         <v>169</v>
       </c>
+      <c r="M58" t="s">
+        <v>643</v>
+      </c>
+      <c r="N58" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -4832,11 +4964,11 @@
       <c r="L60" t="s">
         <v>357</v>
       </c>
-      <c r="M60" t="s">
-        <v>358</v>
-      </c>
-      <c r="N60" t="s">
-        <v>359</v>
+      <c r="M60">
+        <v>45.568629999999999</v>
+      </c>
+      <c r="N60">
+        <v>-61.069169000000002</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4858,6 +4990,9 @@
       <c r="F61" t="s">
         <v>361</v>
       </c>
+      <c r="G61" t="s">
+        <v>643</v>
+      </c>
       <c r="H61" t="s">
         <v>31</v>
       </c>
@@ -4866,6 +5001,18 @@
       </c>
       <c r="J61" t="s">
         <v>316</v>
+      </c>
+      <c r="K61" t="s">
+        <v>643</v>
+      </c>
+      <c r="L61" t="s">
+        <v>643</v>
+      </c>
+      <c r="M61" t="s">
+        <v>643</v>
+      </c>
+      <c r="N61" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4975,8 +5122,20 @@
       <c r="F64" t="s">
         <v>373</v>
       </c>
+      <c r="G64" t="s">
+        <v>643</v>
+      </c>
       <c r="H64" t="s">
         <v>31</v>
+      </c>
+      <c r="I64" t="s">
+        <v>643</v>
+      </c>
+      <c r="J64" t="s">
+        <v>643</v>
+      </c>
+      <c r="K64" t="s">
+        <v>643</v>
       </c>
       <c r="L64" t="s">
         <v>374</v>
@@ -5007,6 +5166,9 @@
       <c r="F65" t="s">
         <v>378</v>
       </c>
+      <c r="G65" t="s">
+        <v>643</v>
+      </c>
       <c r="H65" t="s">
         <v>31</v>
       </c>
@@ -5110,6 +5272,12 @@
       <c r="L67" t="s">
         <v>169</v>
       </c>
+      <c r="M67" t="s">
+        <v>643</v>
+      </c>
+      <c r="N67" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -5218,8 +5386,23 @@
       <c r="F70" t="s">
         <v>413</v>
       </c>
+      <c r="G70" t="s">
+        <v>643</v>
+      </c>
       <c r="H70" t="s">
         <v>102</v>
+      </c>
+      <c r="I70" t="s">
+        <v>643</v>
+      </c>
+      <c r="J70" t="s">
+        <v>643</v>
+      </c>
+      <c r="K70" t="s">
+        <v>643</v>
+      </c>
+      <c r="L70" t="s">
+        <v>643</v>
       </c>
       <c r="M70" t="s">
         <v>414</v>
@@ -5265,6 +5448,12 @@
       <c r="L71" t="s">
         <v>423</v>
       </c>
+      <c r="M71" t="s">
+        <v>643</v>
+      </c>
+      <c r="N71" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -5347,6 +5536,12 @@
       <c r="L73" t="s">
         <v>437</v>
       </c>
+      <c r="M73" t="s">
+        <v>643</v>
+      </c>
+      <c r="N73" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -5367,8 +5562,23 @@
       <c r="F74" t="s">
         <v>439</v>
       </c>
+      <c r="G74" t="s">
+        <v>643</v>
+      </c>
       <c r="H74" t="s">
         <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>643</v>
+      </c>
+      <c r="J74" t="s">
+        <v>643</v>
+      </c>
+      <c r="K74" t="s">
+        <v>643</v>
+      </c>
+      <c r="L74" t="s">
+        <v>643</v>
       </c>
       <c r="M74" t="s">
         <v>440</v>
@@ -5590,6 +5800,12 @@
       <c r="L79" t="s">
         <v>453</v>
       </c>
+      <c r="M79" t="s">
+        <v>643</v>
+      </c>
+      <c r="N79" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
@@ -5610,6 +5826,9 @@
       <c r="F80" t="s">
         <v>469</v>
       </c>
+      <c r="G80" t="s">
+        <v>643</v>
+      </c>
       <c r="H80" t="s">
         <v>82</v>
       </c>
@@ -5783,6 +6002,9 @@
       <c r="F84" t="s">
         <v>361</v>
       </c>
+      <c r="G84" t="s">
+        <v>643</v>
+      </c>
       <c r="H84" t="s">
         <v>31</v>
       </c>
@@ -5791,6 +6013,18 @@
       </c>
       <c r="J84" t="s">
         <v>316</v>
+      </c>
+      <c r="K84" t="s">
+        <v>643</v>
+      </c>
+      <c r="L84" t="s">
+        <v>643</v>
+      </c>
+      <c r="M84" t="s">
+        <v>643</v>
+      </c>
+      <c r="N84" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -5874,6 +6108,12 @@
       <c r="L86" t="s">
         <v>357</v>
       </c>
+      <c r="M86" t="s">
+        <v>643</v>
+      </c>
+      <c r="N86" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -6044,6 +6284,12 @@
       <c r="L90" t="s">
         <v>520</v>
       </c>
+      <c r="M90" t="s">
+        <v>643</v>
+      </c>
+      <c r="N90" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -6258,6 +6504,12 @@
       <c r="L95" t="s">
         <v>210</v>
       </c>
+      <c r="M95" t="s">
+        <v>643</v>
+      </c>
+      <c r="N95" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
@@ -6322,8 +6574,23 @@
       <c r="F97" t="s">
         <v>556</v>
       </c>
+      <c r="G97" t="s">
+        <v>643</v>
+      </c>
       <c r="H97" t="s">
         <v>82</v>
+      </c>
+      <c r="I97" t="s">
+        <v>643</v>
+      </c>
+      <c r="J97" t="s">
+        <v>643</v>
+      </c>
+      <c r="K97" t="s">
+        <v>643</v>
+      </c>
+      <c r="L97" t="s">
+        <v>643</v>
       </c>
       <c r="M97" t="s">
         <v>557</v>
@@ -6369,6 +6636,12 @@
       <c r="L98" t="s">
         <v>564</v>
       </c>
+      <c r="M98" t="s">
+        <v>643</v>
+      </c>
+      <c r="N98" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -6495,6 +6768,12 @@
       <c r="L101" t="s">
         <v>169</v>
       </c>
+      <c r="M101" t="s">
+        <v>643</v>
+      </c>
+      <c r="N101" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -6559,8 +6838,23 @@
       <c r="F103" t="s">
         <v>574</v>
       </c>
+      <c r="G103" t="s">
+        <v>643</v>
+      </c>
       <c r="H103" t="s">
         <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>643</v>
+      </c>
+      <c r="J103" t="s">
+        <v>643</v>
+      </c>
+      <c r="K103" t="s">
+        <v>643</v>
+      </c>
+      <c r="L103" t="s">
+        <v>643</v>
       </c>
       <c r="M103" t="s">
         <v>575</v>
@@ -6588,6 +6882,9 @@
       <c r="F104" t="s">
         <v>579</v>
       </c>
+      <c r="G104" t="s">
+        <v>643</v>
+      </c>
       <c r="H104" t="s">
         <v>19</v>
       </c>
@@ -6647,6 +6944,12 @@
       <c r="L105" t="s">
         <v>481</v>
       </c>
+      <c r="M105" t="s">
+        <v>643</v>
+      </c>
+      <c r="N105" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -6711,8 +7014,23 @@
       <c r="F107" t="s">
         <v>593</v>
       </c>
+      <c r="G107" t="s">
+        <v>643</v>
+      </c>
       <c r="H107" t="s">
         <v>82</v>
+      </c>
+      <c r="I107" t="s">
+        <v>643</v>
+      </c>
+      <c r="J107" t="s">
+        <v>643</v>
+      </c>
+      <c r="K107" t="s">
+        <v>643</v>
+      </c>
+      <c r="L107" t="s">
+        <v>643</v>
       </c>
       <c r="M107" t="s">
         <v>594</v>
@@ -6828,8 +7146,23 @@
       <c r="F110" t="s">
         <v>606</v>
       </c>
+      <c r="G110" t="s">
+        <v>643</v>
+      </c>
       <c r="H110" t="s">
         <v>82</v>
+      </c>
+      <c r="I110" t="s">
+        <v>643</v>
+      </c>
+      <c r="J110" t="s">
+        <v>643</v>
+      </c>
+      <c r="K110" t="s">
+        <v>643</v>
+      </c>
+      <c r="L110" t="s">
+        <v>643</v>
       </c>
       <c r="M110" t="s">
         <v>607</v>
@@ -6857,6 +7190,9 @@
       <c r="F111" t="s">
         <v>610</v>
       </c>
+      <c r="G111" t="s">
+        <v>643</v>
+      </c>
       <c r="H111" t="s">
         <v>31</v>
       </c>
@@ -6942,8 +7278,20 @@
       <c r="F113" t="s">
         <v>617</v>
       </c>
+      <c r="G113" t="s">
+        <v>643</v>
+      </c>
       <c r="H113" t="s">
         <v>31</v>
+      </c>
+      <c r="I113" t="s">
+        <v>643</v>
+      </c>
+      <c r="J113" t="s">
+        <v>643</v>
+      </c>
+      <c r="K113" t="s">
+        <v>643</v>
       </c>
       <c r="L113" t="s">
         <v>618</v>
@@ -7018,6 +7366,9 @@
       <c r="F115" t="s">
         <v>623</v>
       </c>
+      <c r="G115" t="s">
+        <v>643</v>
+      </c>
       <c r="H115" t="s">
         <v>52</v>
       </c>
@@ -7032,6 +7383,12 @@
       </c>
       <c r="L115" t="s">
         <v>621</v>
+      </c>
+      <c r="M115" t="s">
+        <v>643</v>
+      </c>
+      <c r="N115" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -7053,11 +7410,17 @@
       <c r="F116" t="s">
         <v>178</v>
       </c>
+      <c r="G116" t="s">
+        <v>643</v>
+      </c>
       <c r="H116" t="s">
         <v>52</v>
       </c>
       <c r="I116" t="s">
         <v>179</v>
+      </c>
+      <c r="J116" t="s">
+        <v>643</v>
       </c>
       <c r="K116" t="s">
         <v>180</v>
@@ -7091,8 +7454,23 @@
       <c r="F117" t="s">
         <v>628</v>
       </c>
+      <c r="G117" t="s">
+        <v>643</v>
+      </c>
       <c r="H117" t="s">
         <v>102</v>
+      </c>
+      <c r="I117" t="s">
+        <v>643</v>
+      </c>
+      <c r="J117" t="s">
+        <v>643</v>
+      </c>
+      <c r="K117" t="s">
+        <v>643</v>
+      </c>
+      <c r="L117" t="s">
+        <v>643</v>
       </c>
       <c r="M117" t="s">
         <v>629</v>
@@ -7120,8 +7498,29 @@
       <c r="F118" t="s">
         <v>632</v>
       </c>
+      <c r="G118" t="s">
+        <v>643</v>
+      </c>
       <c r="H118" t="s">
         <v>31</v>
+      </c>
+      <c r="I118" t="s">
+        <v>643</v>
+      </c>
+      <c r="J118" t="s">
+        <v>643</v>
+      </c>
+      <c r="K118" t="s">
+        <v>643</v>
+      </c>
+      <c r="L118" t="s">
+        <v>643</v>
+      </c>
+      <c r="M118" t="s">
+        <v>643</v>
+      </c>
+      <c r="N118" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -7143,6 +7542,9 @@
       <c r="F119" t="s">
         <v>635</v>
       </c>
+      <c r="G119" t="s">
+        <v>643</v>
+      </c>
       <c r="H119" t="s">
         <v>19</v>
       </c>
@@ -7151,6 +7553,18 @@
       </c>
       <c r="J119" t="s">
         <v>316</v>
+      </c>
+      <c r="K119" t="s">
+        <v>643</v>
+      </c>
+      <c r="L119" t="s">
+        <v>643</v>
+      </c>
+      <c r="M119" t="s">
+        <v>643</v>
+      </c>
+      <c r="N119" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -7172,6 +7586,9 @@
       <c r="F120" t="s">
         <v>638</v>
       </c>
+      <c r="G120" t="s">
+        <v>643</v>
+      </c>
       <c r="H120" t="s">
         <v>31</v>
       </c>
@@ -7180,6 +7597,18 @@
       </c>
       <c r="J120" t="s">
         <v>316</v>
+      </c>
+      <c r="K120" t="s">
+        <v>643</v>
+      </c>
+      <c r="L120" t="s">
+        <v>643</v>
+      </c>
+      <c r="M120" t="s">
+        <v>643</v>
+      </c>
+      <c r="N120" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -7201,6 +7630,9 @@
       <c r="F121" t="s">
         <v>640</v>
       </c>
+      <c r="G121" t="s">
+        <v>643</v>
+      </c>
       <c r="H121" t="s">
         <v>82</v>
       </c>
@@ -7209,6 +7641,12 @@
       </c>
       <c r="J121" t="s">
         <v>316</v>
+      </c>
+      <c r="K121" t="s">
+        <v>643</v>
+      </c>
+      <c r="L121" t="s">
+        <v>643</v>
       </c>
       <c r="M121" t="s">
         <v>641</v>
